--- a/src/main/resources/womenBoohooCoat.xlsx
+++ b/src/main/resources/womenBoohooCoat.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,58 +32,139 @@
     <t>URL</t>
   </si>
   <si>
-    <t>WOMEN COAT</t>
+    <t>women_boohoo_coat_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55677_silver_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>METALLIC DOUBLE BREAST FAUX LEATHER MAXI TRENCH COAT</t>
+  </si>
+  <si>
+    <t>$99.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-double-breast-faux-leather-maxi-trench-coat/GZZ55677.html?color=163</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz07809_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HOODED FESTIVAL MAC</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/hooded-festival-mac/FZZ07809.html?color=135</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz63460_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/hooded-festival-mac/GZZ63460.html?color=151</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz63282_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE FAUX FUR BUCKLE DETAIL COAT</t>
+  </si>
+  <si>
+    <t>$123.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-faux-fur-buckle-detail-coat/GZZ63282.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz66099_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED FAUX FUR DETAIL COAT</t>
+  </si>
+  <si>
+    <t>$139.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-faux-fur-detail-coat-/GZZ66099.html?color=186</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz35706_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>WOOL LOOK OVERSIZED BELTED COAT</t>
+  </si>
+  <si>
+    <t>$96.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/wool-look-oversized-belted-coat/GZZ35706.html?color=135</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz28222_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED MAXI WOOL LOOK COAT</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-maxi-wool-look-coat/GZZ28222.html?color=135</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_8</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz60667_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>FAUX FUR TRIM SHORT SUEDETTE COAT</t>
   </si>
   <si>
-    <t>$96.00</t>
+    <t>$50.00</t>
   </si>
   <si>
     <t>https://ca.boohoo.com/faux-fur-trim-short-suedette-coat-/GZZ60667.html?color=155</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz66099_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED FAUX FUR DETAIL COAT</t>
-  </si>
-  <si>
-    <t>$139.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-faux-fur-detail-coat-/GZZ66099.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz28222_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED MAXI WOOL LOOK COAT</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-maxi-wool-look-coat/GZZ28222.html?color=135</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz07809_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HOODED FESTIVAL MAC</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/hooded-festival-mac/FZZ07809.html?color=135</t>
+    <t>women_boohoo_coat_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz58749_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE FAUX FUR SUEDE COAT</t>
+  </si>
+  <si>
+    <t>$119.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-faux-fur-suede-coat/GZZ58749.html?color=166</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_10</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/fzz76955_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -92,10 +173,226 @@
     <t>QUILTED FAUX FUR HOOD PARKA COAT</t>
   </si>
   <si>
+    <t>https://ca.boohoo.com/quilted-faux-fur-hood-parka-coat/FZZ76955.html?color=148</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz71771_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHAGGY FAUX FUR LONGLINE COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/shaggy-faux-fur-longline-coat/GZZ71771.html?color=186</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55556_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TEXTURED BELTED FAUX FUR COAT</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/textured-belted-faux-fur-coat-/GZZ55556.html?color=161</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz49851_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TAILORED WOOL LOOK COAT</t>
+  </si>
+  <si>
+    <t>$60.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tailored-wool-look-coat/FZZ49851.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz71772_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TEXTURED FAUX FUR LONGLINE COAT</t>
+  </si>
+  <si>
+    <t>$57.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/textured-faux-fur-longline-coat/GZZ71772.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz73707_dark%20brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SUEDETTE BORG TRIM AVIATOR JACKET</t>
+  </si>
+  <si>
+    <t>$132.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/suedette-borg-trim-aviator-jacket/GZZ73707.html?color=380</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz56750_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE FAUX FUR TRIM SUEDETTE COAT</t>
+  </si>
+  <si>
+    <t>$146.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-faux-fur-trim-suedette-coat/GZZ56750.html?color=186</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz10216_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FAUX FUR TRIM PARKA COAT</t>
+  </si>
+  <si>
+    <t>$82.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/faux-fur-trim-parka-coat/GZZ10216.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55699_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED SHOULDER PAD DOUBLE BREAST MAXI WOOL COAT</t>
+  </si>
+  <si>
+    <t>$53.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-shoulder-pad-double-breast-maxi-wool-coat-/GZZ55699.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz53244_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BELTED WOOL LOOK COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/belted-wool-look-coat/FZZ53244.html?color=165</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz79156_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED TEDDY JACKET</t>
+  </si>
+  <si>
+    <t>$74.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-teddy-jacket-/GZZ79156.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz63058_tobacco_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAXI TRENCH COAT</t>
+  </si>
+  <si>
     <t>$91.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/quilted-faux-fur-hood-parka-coat/FZZ76955.html?color=148</t>
+    <t>https://ca.boohoo.com/maxi-trench-coat/GZZ63058.html?color=214</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz73714_dark%20brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SUEDETTE CROPPED BORG TRIM AVIATOR</t>
+  </si>
+  <si>
+    <t>$149.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/suedette-cropped-borg-trim-aviator-/GZZ73714.html?color=380</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz96404_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FAUX FUR HOODED BELTED PARKA COAT</t>
+  </si>
+  <si>
+    <t>$157.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/faux-fur-hooded-belted-parka-coat/FZZ96404.html?color=131</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz16396_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LUXE FAUX FUR OVERSIZED COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/luxe-faux-fur-oversized-coat/FZZ16396.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz73716_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TEDDY WATERFALL COLLAR COAT</t>
+  </si>
+  <si>
+    <t>$65.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/teddy-waterfall-collar-coat/GZZ73716.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_26</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz55678_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -104,43 +401,25 @@
     <t>DOUBLE BREAST FAUX LEATHER MAXI TRENCH COAT</t>
   </si>
   <si>
-    <t>$57.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/double-breast-faux-leather-maxi-trench-coat/GZZ55678.html?color=105</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz56750_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE FAUX FUR TRIM SUEDETTE COAT</t>
-  </si>
-  <si>
-    <t>$99.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-faux-fur-trim-suedette-coat/GZZ56750.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz73714_dark%20brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SUEDETTE CROPPED BORG TRIM AVIATOR</t>
-  </si>
-  <si>
-    <t>$63.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/suedette-cropped-borg-trim-aviator-/GZZ73714.html?color=380</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55677_silver_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC DOUBLE BREAST FAUX LEATHER MAXI TRENCH COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-double-breast-faux-leather-maxi-trench-coat/GZZ55677.html?color=163</t>
+    <t>women_boohoo_coat_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz57993_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE FAUX FUR TRIM COAT</t>
+  </si>
+  <si>
+    <t>$80.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-faux-fur-trim-coat/GZZ57993.html?color=131</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_28</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz35600_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -149,259 +428,73 @@
     <t>HOODED WOOL LOOK COAT</t>
   </si>
   <si>
-    <t>$119.00</t>
+    <t>$106.00</t>
   </si>
   <si>
     <t>https://ca.boohoo.com/hooded-wool-look-coat/GZZ35600.html?color=165</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz58749_tan_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE FAUX FUR SUEDE COAT</t>
-  </si>
-  <si>
-    <t>$123.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-faux-fur-suede-coat/GZZ58749.html?color=166</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz49851_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TAILORED WOOL LOOK COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tailored-wool-look-coat/FZZ49851.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz71771_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHAGGY FAUX FUR LONGLINE COAT</t>
-  </si>
-  <si>
-    <t>$100.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/shaggy-faux-fur-longline-coat/GZZ71771.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz35706_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WOOL LOOK OVERSIZED BELTED COAT</t>
-  </si>
-  <si>
-    <t>$60.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/wool-look-oversized-belted-coat/GZZ35706.html?color=135</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55556_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TEXTURED BELTED FAUX FUR COAT</t>
-  </si>
-  <si>
-    <t>$43.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/textured-belted-faux-fur-coat-/GZZ55556.html?color=161</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz63460_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/hooded-festival-mac/GZZ63460.html?color=151</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz71772_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TEXTURED FAUX FUR LONGLINE COAT</t>
-  </si>
-  <si>
-    <t>$132.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/textured-faux-fur-longline-coat/GZZ71772.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz73707_dark%20brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SUEDETTE BORG TRIM AVIATOR JACKET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/suedette-borg-trim-aviator-jacket/GZZ73707.html?color=380</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz49851_mocha_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$82.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tailored-wool-look-coat/FZZ49851.html?color=197</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz63282_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE FAUX FUR BUCKLE DETAIL COAT</t>
-  </si>
-  <si>
-    <t>$146.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-faux-fur-buckle-detail-coat/GZZ63282.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz10216_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FAUX FUR TRIM PARKA COAT</t>
-  </si>
-  <si>
-    <t>$165.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/faux-fur-trim-parka-coat/GZZ10216.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz16396_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LUXE FAUX FUR OVERSIZED COAT</t>
-  </si>
-  <si>
-    <t>$53.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/luxe-faux-fur-oversized-coat/FZZ16396.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz63058_tobacco_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAXI TRENCH COAT</t>
-  </si>
-  <si>
-    <t>$74.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/maxi-trench-coat/GZZ63058.html?color=214</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55699_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED SHOULDER PAD DOUBLE BREAST MAXI WOOL COAT</t>
+    <t>women_boohoo_coat_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz78630_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FAUX FUR TRIM HOOD PARKA COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/faux-fur-trim-hood-parka-coat-/GZZ78630.html?color=135</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz63460_dusky%20pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>$172.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/hooded-festival-mac/GZZ63460.html?color=355</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz63286_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE QUILTED WOOL LOOK PADDED TRENCH COAT</t>
   </si>
   <si>
     <t>$47.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/oversized-shoulder-pad-double-breast-maxi-wool-coat-/GZZ55699.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz16391_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LUXE FAUX FUR LONGLINE COAT</t>
-  </si>
-  <si>
-    <t>$157.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/luxe-faux-fur-longline-coat/FZZ16391.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz53244_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BELTED WOOL LOOK COAT</t>
-  </si>
-  <si>
-    <t>$106.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/belted-wool-look-coat/FZZ53244.html?color=165</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz96404_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FAUX FUR HOODED BELTED PARKA COAT</t>
-  </si>
-  <si>
-    <t>$80.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/faux-fur-hooded-belted-parka-coat/FZZ96404.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz73716_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TEDDY WATERFALL COLLAR COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/teddy-waterfall-collar-coat/GZZ73716.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz70041_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WIDE COLLAR BELTED WOOL LOOK COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/wide-collar-belted-wool-look-coat/FZZ70041.html?color=165</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz76947_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONGLINE DOUBLE BREASTED BELTED WOOL LOOK COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/longline-double-breasted-belted-wool-look-coat/FZZ76947.html?color=111</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz78630_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FAUX FUR TRIM HOOD PARKA COAT</t>
-  </si>
-  <si>
-    <t>$65.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/faux-fur-trim-hood-parka-coat-/GZZ78630.html?color=135</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55661_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FAUX LEATHER MAXI BUTTON DETAIL TRENCH COAT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/faux-leather-maxi-button-detail-trench-coat/GZZ55661.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55683_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FAUX LEATHER SNAKE PRINT MAXI TRENCH COAT</t>
-  </si>
-  <si>
-    <t>$172.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/faux-leather-snake-print-maxi-trench-coat-/GZZ55683.html?color=165</t>
+    <t>https://ca.boohoo.com/petite-quilted-wool-look-padded-trench-coat/GZZ63286.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz57569_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL TEXTURED COLLARED FAUX FUR COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-textured-collared-faux-fur-coat-/GZZ57569.html?color=111</t>
+  </si>
+  <si>
+    <t>women_boohoo_coat_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75380_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED DOUBLE BREAST TRENCH COAT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-double-breast-trench-coat/GZZ75380.html?color=165</t>
   </si>
 </sst>
 </file>
@@ -494,39 +587,39 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>19</v>
@@ -534,602 +627,602 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>76</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
